--- a/PROPERTIES/MONICA/MONICA_HousesPaymentRecords2025.xlsx
+++ b/PROPERTIES/MONICA/MONICA_HousesPaymentRecords2025.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="JUNE" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="JULY" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="219">
   <si>
     <t xml:space="preserve">HOUSE NO</t>
   </si>
@@ -689,11 +690,12 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -731,14 +733,6 @@
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -808,7 +802,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,20 +847,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor rgb="FFDCEAF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8999"/>
-        <bgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -878,7 +866,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
-        <bgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FFE5E5E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -937,304 +925,252 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1268,7 +1204,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFDCEAF7"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1282,8 +1218,8 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFE8E8E8"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE5E5E5"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFEC9BA4"/>
@@ -1423,8 +1359,8 @@
   </sheetPr>
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E138" activeCellId="0" sqref="E138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B146" activeCellId="0" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1788,18 +1724,18 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E17" s="27" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="27"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2054,40 +1990,40 @@
       <c r="F31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="n">
+      <c r="A32" s="23" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="31" t="n">
+      <c r="D32" s="26" t="n">
         <v>6000</v>
       </c>
-      <c r="E32" s="32" t="n">
+      <c r="E32" s="27" t="n">
         <v>6000</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="n">
+      <c r="A33" s="28" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="36" t="n">
+      <c r="D33" s="31" t="n">
         <v>6000</v>
       </c>
-      <c r="E33" s="37" t="n">
+      <c r="E33" s="32" t="n">
         <v>6000</v>
       </c>
-      <c r="F33" s="37"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -2108,24 +2044,24 @@
       <c r="F34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="39" t="n">
+      <c r="D35" s="34" t="n">
         <f aca="false">SUM(D3:D34)</f>
         <v>173500</v>
       </c>
-      <c r="E35" s="39" t="n">
+      <c r="E35" s="34" t="n">
         <f aca="false">SUM(E3:E34)</f>
         <v>173500</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,19 +2099,19 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="n">
+      <c r="A40" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="31" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E40" s="43" t="n">
+      <c r="D40" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E40" s="38" t="n">
         <v>5000</v>
       </c>
     </row>
@@ -2209,39 +2145,39 @@
       <c r="D42" s="18" t="n">
         <v>5000</v>
       </c>
-      <c r="E42" s="44" t="n">
+      <c r="E42" s="20" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="45" t="n">
+      <c r="A43" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="17" t="n">
         <v>729345900</v>
       </c>
-      <c r="D43" s="47" t="n">
+      <c r="D43" s="40" t="n">
         <v>8500</v>
       </c>
-      <c r="E43" s="48" t="n">
+      <c r="E43" s="41" t="n">
         <v>8500</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="49" t="n">
+      <c r="A44" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E44" s="53" t="n">
+      <c r="C44" s="44"/>
+      <c r="D44" s="45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="46" t="n">
         <v>5000</v>
       </c>
     </row>
@@ -2281,15 +2217,15 @@
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9"/>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="55" t="n">
+      <c r="C47" s="36"/>
+      <c r="D47" s="48" t="n">
         <f aca="false">SUM(D38:D46)</f>
         <v>48500</v>
       </c>
-      <c r="E47" s="56" t="n">
+      <c r="E47" s="49" t="n">
         <f aca="false">SUM(E38:E46)</f>
         <v>48500</v>
       </c>
@@ -2302,18 +2238,18 @@
       <c r="E48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,25 +2389,25 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="57" t="n">
+      <c r="D61" s="50" t="n">
         <f aca="false">SUM(D53:D60)</f>
         <v>47000</v>
       </c>
-      <c r="E61" s="57" t="n">
+      <c r="E61" s="50" t="n">
         <f aca="false">SUM(E53:E60)</f>
         <v>47000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="n">
@@ -2661,19 +2597,19 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28" t="n">
+      <c r="A76" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="31" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E76" s="32" t="n">
+      <c r="D76" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="27" t="n">
         <v>5000</v>
       </c>
     </row>
@@ -2712,29 +2648,29 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28" t="n">
+      <c r="A79" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="31" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E79" s="32" t="n">
+      <c r="D79" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E79" s="27" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="45" t="n">
+      <c r="A80" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E80" s="13"/>
@@ -2842,24 +2778,24 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D87" s="64" t="n">
+      <c r="D87" s="51" t="n">
         <f aca="false">SUM(D65:D86)</f>
         <v>112000</v>
       </c>
-      <c r="E87" s="64" t="n">
+      <c r="E87" s="51" t="n">
         <f aca="false">SUM(E65:E86)</f>
         <v>112000</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,19 +2867,19 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="28" t="n">
+      <c r="A95" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="30" t="n">
+      <c r="C95" s="25" t="n">
         <v>710633541</v>
       </c>
-      <c r="D95" s="31" t="n">
-        <v>11000</v>
-      </c>
-      <c r="E95" s="43" t="n">
+      <c r="D95" s="26" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E95" s="38" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -3057,7 +2993,7 @@
       <c r="C102" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D102" s="66" t="n">
+      <c r="D102" s="53" t="n">
         <v>11000</v>
       </c>
       <c r="E102" s="14" t="n">
@@ -3099,24 +3035,24 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="57" t="s">
+      <c r="B105" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="64" t="n">
+      <c r="D105" s="51" t="n">
         <f aca="false">SUM(D91:D104)</f>
         <v>156000</v>
       </c>
-      <c r="E105" s="64" t="n">
+      <c r="E105" s="51" t="n">
         <f aca="false">SUM(E91:E104)</f>
         <v>155000</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="42"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,19 +3124,19 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="28" t="n">
+      <c r="A114" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D114" s="31" t="n">
-        <v>11000</v>
-      </c>
-      <c r="E114" s="32" t="n">
+      <c r="D114" s="26" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E114" s="27" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -3262,7 +3198,7 @@
       <c r="B118" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C118" s="67" t="n">
+      <c r="C118" s="54" t="n">
         <v>729685877</v>
       </c>
       <c r="D118" s="18" t="n">
@@ -3356,7 +3292,7 @@
       <c r="E123" s="14" t="n">
         <v>11000</v>
       </c>
-      <c r="F123" s="68" t="s">
+      <c r="F123" s="55" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3480,71 +3416,71 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C131" s="11"/>
-      <c r="D131" s="69" t="n">
+      <c r="D131" s="56" t="n">
         <f aca="false">SUM(D110:D130)</f>
         <v>245000</v>
       </c>
-      <c r="E131" s="70" t="n">
+      <c r="E131" s="57" t="n">
         <f aca="false">SUM(E110:E130)</f>
         <v>245000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
     </row>
     <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="72" t="s">
+      <c r="C134" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="D134" s="73" t="n">
+      <c r="D134" s="60" t="n">
         <v>713500</v>
       </c>
-      <c r="E134" s="73" t="n">
+      <c r="E134" s="60" t="n">
         <v>781000</v>
       </c>
-      <c r="F134" s="74"/>
+      <c r="F134" s="61"/>
     </row>
     <row r="135" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="72"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
     </row>
     <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="D136" s="73" t="n">
+      <c r="D136" s="60" t="n">
         <v>35675</v>
       </c>
-      <c r="E136" s="73" t="n">
+      <c r="E136" s="60" t="n">
         <v>39050</v>
       </c>
-      <c r="F136" s="74"/>
+      <c r="F136" s="61"/>
     </row>
     <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="72"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
     </row>
     <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="72" t="s">
+      <c r="C138" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D138" s="73" t="n">
+      <c r="D138" s="60" t="n">
         <v>677825</v>
       </c>
-      <c r="E138" s="73" t="n">
+      <c r="E138" s="60" t="n">
         <v>741950</v>
       </c>
-      <c r="F138" s="74"/>
+      <c r="F138" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3555,4 +3491,3698 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R138"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D110" activeCellId="0" sqref="D110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>702870136</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="17" t="n">
+        <v>705949428</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="18" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="26" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="31" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="12" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="34" t="n">
+        <f aca="false">SUM(D3:D34)</f>
+        <v>173500</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="17" t="n">
+        <v>729345900</v>
+      </c>
+      <c r="D43" s="40" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="48" t="n">
+        <f aca="false">SUM(D38:D46)</f>
+        <v>48500</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1"/>
+      <c r="B52" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="12" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="18" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+      <c r="B61" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="50" t="n">
+        <f aca="false">SUM(D53:D60)</f>
+        <v>47000</v>
+      </c>
+      <c r="E61" s="50"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1"/>
+      <c r="B64" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="12" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="12" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="20"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E78" s="20"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1"/>
+      <c r="B87" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="51" t="n">
+        <f aca="false">SUM(D65:D86)</f>
+        <v>112000</v>
+      </c>
+      <c r="E87" s="51"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1"/>
+      <c r="B90" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="25" t="n">
+        <v>710633541</v>
+      </c>
+      <c r="D95" s="26" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E95" s="38"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E96" s="20"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="11" t="n">
+        <v>701272037</v>
+      </c>
+      <c r="D101" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="14"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="53" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1"/>
+      <c r="B105" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="51" t="n">
+        <f aca="false">SUM(D91:D104)</f>
+        <v>156000</v>
+      </c>
+      <c r="E105" s="51"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1"/>
+      <c r="B109" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="36"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E111" s="14"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E112" s="20"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E113" s="20"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="26" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E114" s="27"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E116" s="20"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E117" s="14"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="54" t="n">
+        <v>729685877</v>
+      </c>
+      <c r="D118" s="18" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E118" s="21"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E119" s="20"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E122" s="19"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D123" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D125" s="12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" s="12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E126" s="20"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D127" s="18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E127" s="21"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D128" s="18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E128" s="21"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D130" s="12" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1"/>
+      <c r="B131" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="56" t="n">
+        <f aca="false">SUM(D110:D130)</f>
+        <v>245000</v>
+      </c>
+      <c r="E131" s="57"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="D134" s="60" t="n">
+        <v>713500</v>
+      </c>
+      <c r="E134" s="60"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" s="60" t="n">
+        <v>35675</v>
+      </c>
+      <c r="E136" s="60"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D138" s="60" t="n">
+        <v>677825</v>
+      </c>
+      <c r="E138" s="60"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>